--- a/Stored Procedures/WebServices/04_تیر/SKerman_SPs/راهنمای وب سرویس‌ اطلاعات داشبورد جنوب کرمان14000503_بخش4.xlsx
+++ b/Stored Procedures/WebServices/04_تیر/SKerman_SPs/راهنمای وب سرویس‌ اطلاعات داشبورد جنوب کرمان14000503_بخش4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\Stored Procedures\WebServices\04_تیر\SKerman_SPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0CC3F-2DEE-464A-A68A-BE31A710B5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F2A44C-23A0-4C57-9E86-DA8BB02D11E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>Json Array</t>
-  </si>
-  <si>
-    <t>لیست فیدرهای ناپایدار که در قالب کلاس و دارای فیلدهای زیر می‌باشد</t>
-  </si>
-  <si>
-    <t>نمایش گزارش تعادل بار</t>
   </si>
   <si>
     <t>Area</t>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>تعداد فیدرهای عمومی با قطعی بی برنامه پایدار بیش از 100 مرتبه در 1 سال</t>
+  </si>
+  <si>
+    <t>لیست تعداد فیدرهای عمومی با قطعی بی برنامه پایدار که در قالب کلاس و دارای فیلدهای زیر می‌باشد</t>
+  </si>
+  <si>
+    <t>نمایش اطلاعات مورد نیاز داشبورد بخش 4</t>
   </si>
 </sst>
 </file>
@@ -590,32 +590,32 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1086,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1099,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D3" s="30"/>
     </row>
@@ -1161,25 +1161,25 @@
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1188,10 +1188,10 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1200,10 +1200,10 @@
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
@@ -1212,34 +1212,34 @@
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="15"/>
+      <c r="C12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
@@ -1253,11 +1253,11 @@
     </row>
     <row r="15" spans="1:4" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="43"/>
     </row>
